--- a/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_categorization_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_categorization_kitchens_1.xlsx
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_cv9qj.png</t>
+          <t>stimuli/img_lpr0l.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>60.34375</v>
+        <v>77.04651162790698</v>
       </c>
       <c r="N2">
-        <v>35.34375</v>
+        <v>59.86046511627907</v>
       </c>
       <c r="O2">
-        <v>47.84375</v>
+        <v>68.45348837209303</v>
       </c>
       <c r="P2">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_84s7n.png</t>
+          <t>stimuli/img_c79r7.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>11.03125</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="N3">
-        <v>2.90625</v>
+        <v>34.26470588235294</v>
       </c>
       <c r="O3">
-        <v>6.96875</v>
+        <v>45.26470588235294</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -651,35 +651,35 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_lpas9.png</t>
+          <t>stimuli/img_bwo9g.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>59.36585365853659</v>
+        <v>64.81818181818181</v>
       </c>
       <c r="N4">
-        <v>39.09756097560975</v>
+        <v>42.36363636363637</v>
       </c>
       <c r="O4">
-        <v>49.23170731707317</v>
+        <v>53.59090909090909</v>
       </c>
       <c r="P4">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -728,53 +728,53 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_s9are.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>75.27659574468085</v>
+        <v>90.14285714285714</v>
       </c>
       <c r="N5">
-        <v>56.68085106382978</v>
+        <v>75.22857142857143</v>
       </c>
       <c r="O5">
-        <v>65.97872340425532</v>
+        <v>82.68571428571428</v>
       </c>
       <c r="P5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -820,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_jz3kd.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>81.40625</v>
+        <v>72.79411764705883</v>
       </c>
       <c r="N6">
-        <v>61.4375</v>
+        <v>51.64705882352941</v>
       </c>
       <c r="O6">
-        <v>71.421875</v>
+        <v>62.22058823529412</v>
       </c>
       <c r="P6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -882,7 +882,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -897,38 +897,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_d3t0o.png</t>
+          <t>stimuli/img_xu1p3.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>66.95121951219512</v>
+        <v>75.27659574468085</v>
       </c>
       <c r="N7">
-        <v>42.92682926829269</v>
+        <v>56.68085106382978</v>
       </c>
       <c r="O7">
-        <v>54.9390243902439</v>
+        <v>65.97872340425532</v>
       </c>
       <c r="P7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -974,38 +974,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_a8wvq.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>69.28571428571429</v>
+        <v>86.25925925925925</v>
       </c>
       <c r="N8">
-        <v>47.35714285714285</v>
+        <v>66.25925925925925</v>
       </c>
       <c r="O8">
-        <v>58.32142857142857</v>
+        <v>76.25925925925925</v>
       </c>
       <c r="P8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1036,53 +1036,53 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_qrc78.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>75.66666666666667</v>
+        <v>76.2</v>
       </c>
       <c r="N9">
-        <v>54.27272727272727</v>
+        <v>59.875</v>
       </c>
       <c r="O9">
-        <v>64.96969696969697</v>
+        <v>68.03749999999999</v>
       </c>
       <c r="P9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>6</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_ua9bs.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>68.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="N10">
-        <v>45.62857142857143</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="O10">
-        <v>57.01428571428572</v>
+        <v>72.11666666666667</v>
       </c>
       <c r="P10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1190,53 +1190,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
+          <t>stimuli/img_huisn.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>56.26470588235294</v>
+        <v>73.63888888888889</v>
       </c>
       <c r="N11">
-        <v>34.26470588235294</v>
+        <v>46.36111111111111</v>
       </c>
       <c r="O11">
-        <v>45.26470588235294</v>
+        <v>60</v>
       </c>
       <c r="P11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_h13c3.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>71.80555555555556</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N12">
-        <v>47.86111111111111</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O12">
-        <v>59.83333333333334</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P12">
         <v>36</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1359,38 +1359,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_fmgjx.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>79.90000000000001</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N13">
-        <v>56.975</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O13">
-        <v>68.4375</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P13">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1421,53 +1421,53 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_qrc78.png</t>
+          <t>stimuli/img_84s7n.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>76.2</v>
+        <v>11.03125</v>
       </c>
       <c r="N14">
-        <v>59.875</v>
+        <v>2.90625</v>
       </c>
       <c r="O14">
-        <v>68.03749999999999</v>
+        <v>6.96875</v>
       </c>
       <c r="P14">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1513,38 +1513,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_g9od8.png</t>
+          <t>stimuli/img_fmgjx.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>59.34883720930232</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N15">
-        <v>37.83720930232558</v>
+        <v>56.975</v>
       </c>
       <c r="O15">
-        <v>48.59302325581395</v>
+        <v>68.4375</v>
       </c>
       <c r="P15">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_02alv.png</t>
+          <t>stimuli/img_i2k07.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>61.8</v>
+        <v>64.25925925925925</v>
       </c>
       <c r="N16">
-        <v>37.8</v>
+        <v>40.92592592592592</v>
       </c>
       <c r="O16">
-        <v>49.8</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="P16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1652,53 +1652,53 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_d3t0o.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>78.88888888888889</v>
+        <v>66.95121951219512</v>
       </c>
       <c r="N17">
-        <v>59.30555555555556</v>
+        <v>42.92682926829269</v>
       </c>
       <c r="O17">
-        <v>69.09722222222223</v>
+        <v>54.9390243902439</v>
       </c>
       <c r="P17">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V17">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1729,53 +1729,53 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_mqnl6.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>78.59375</v>
+        <v>70.7560975609756</v>
       </c>
       <c r="N18">
-        <v>57.84375</v>
+        <v>45.68292682926829</v>
       </c>
       <c r="O18">
-        <v>68.21875</v>
+        <v>58.21951219512195</v>
       </c>
       <c r="P18">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_zh8ms.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>72.79411764705883</v>
+        <v>59.82608695652174</v>
       </c>
       <c r="N19">
-        <v>51.64705882352941</v>
+        <v>39.43478260869565</v>
       </c>
       <c r="O19">
-        <v>62.22058823529412</v>
+        <v>49.6304347826087</v>
       </c>
       <c r="P19">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1898,38 +1898,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_i2k07.png</t>
+          <t>stimuli/img_7pgd2.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>64.25925925925925</v>
+        <v>78.59375</v>
       </c>
       <c r="N20">
-        <v>40.92592592592592</v>
+        <v>57.84375</v>
       </c>
       <c r="O20">
-        <v>52.59259259259259</v>
+        <v>68.21875</v>
       </c>
       <c r="P20">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_xti0z.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>64.81818181818181</v>
+        <v>81.40625</v>
       </c>
       <c r="N21">
-        <v>42.36363636363637</v>
+        <v>61.4375</v>
       </c>
       <c r="O21">
-        <v>53.59090909090909</v>
+        <v>71.421875</v>
       </c>
       <c r="P21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2114,53 +2114,53 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_b89t4.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>47.10344827586207</v>
+        <v>71.41463414634147</v>
       </c>
       <c r="N23">
-        <v>25.72413793103448</v>
+        <v>47.85365853658536</v>
       </c>
       <c r="O23">
-        <v>36.41379310344828</v>
+        <v>59.63414634146342</v>
       </c>
       <c r="P23">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2191,53 +2191,53 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_b89t4.png</t>
+          <t>stimuli/img_c0me7.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>71.41463414634147</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N24">
-        <v>47.85365853658536</v>
+        <v>45.62857142857143</v>
       </c>
       <c r="O24">
-        <v>59.63414634146342</v>
+        <v>57.01428571428572</v>
       </c>
       <c r="P24">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2345,53 +2345,53 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_411xa.png</t>
+          <t>stimuli/img_h13c3.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>51.03030303030303</v>
+        <v>71.80555555555556</v>
       </c>
       <c r="N26">
-        <v>28.93939393939394</v>
+        <v>47.86111111111111</v>
       </c>
       <c r="O26">
-        <v>39.98484848484848</v>
+        <v>59.83333333333334</v>
       </c>
       <c r="P26">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2437,38 +2437,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_lpr0l.png</t>
+          <t>stimuli/img_uttnz.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>77.04651162790698</v>
+        <v>69.91891891891892</v>
       </c>
       <c r="N27">
-        <v>59.86046511627907</v>
+        <v>49.91891891891892</v>
       </c>
       <c r="O27">
-        <v>68.45348837209303</v>
+        <v>59.91891891891892</v>
       </c>
       <c r="P27">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2514,38 +2514,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_4974k.png</t>
+          <t>stimuli/img_g9od8.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>79.89130434782609</v>
+        <v>59.34883720930232</v>
       </c>
       <c r="N28">
-        <v>58.19565217391305</v>
+        <v>37.83720930232558</v>
       </c>
       <c r="O28">
-        <v>69.04347826086956</v>
+        <v>48.59302325581395</v>
       </c>
       <c r="P28">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_bdz92.png</t>
+          <t>stimuli/img_ncr40.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>63.72222222222222</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="N29">
-        <v>42.63888888888889</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O29">
-        <v>53.18055555555556</v>
+        <v>64.96969696969697</v>
       </c>
       <c r="P29">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2653,53 +2653,53 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_abobq.png</t>
+          <t>stimuli/img_05flq.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>75.18421052631579</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="N30">
-        <v>54.13157894736842</v>
+        <v>25.72413793103448</v>
       </c>
       <c r="O30">
-        <v>64.65789473684211</v>
+        <v>36.41379310344828</v>
       </c>
       <c r="P30">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2730,53 +2730,53 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_zh8ms.png</t>
+          <t>stimuli/img_411xa.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>59.82608695652174</v>
+        <v>51.03030303030303</v>
       </c>
       <c r="N31">
-        <v>39.43478260869565</v>
+        <v>28.93939393939394</v>
       </c>
       <c r="O31">
-        <v>49.6304347826087</v>
+        <v>39.98484848484848</v>
       </c>
       <c r="P31">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2807,53 +2807,53 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_71mhq.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>82</v>
+        <v>69.34210526315789</v>
       </c>
       <c r="N32">
-        <v>62.23333333333333</v>
+        <v>47.02631578947368</v>
       </c>
       <c r="O32">
-        <v>72.11666666666667</v>
+        <v>58.18421052631579</v>
       </c>
       <c r="P32">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V32">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2884,53 +2884,53 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_twj5p.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>72.24242424242425</v>
+        <v>67.71739130434783</v>
       </c>
       <c r="N33">
-        <v>50</v>
+        <v>42.08695652173913</v>
       </c>
       <c r="O33">
-        <v>61.12121212121212</v>
+        <v>54.90217391304348</v>
       </c>
       <c r="P33">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>5</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2961,53 +2961,53 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_02alv.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>86.25925925925925</v>
+        <v>61.8</v>
       </c>
       <c r="N34">
-        <v>66.25925925925925</v>
+        <v>37.8</v>
       </c>
       <c r="O34">
-        <v>76.25925925925925</v>
+        <v>49.8</v>
       </c>
       <c r="P34">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3053,38 +3053,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_huisn.png</t>
+          <t>stimuli/img_4974k.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>73.63888888888889</v>
+        <v>79.89130434782609</v>
       </c>
       <c r="N35">
-        <v>46.36111111111111</v>
+        <v>58.19565217391305</v>
       </c>
       <c r="O35">
-        <v>60</v>
+        <v>69.04347826086956</v>
       </c>
       <c r="P35">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -3115,53 +3115,53 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_twj5p.png</t>
+          <t>stimuli/img_j5rpx.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>67.71739130434783</v>
+        <v>72.24242424242425</v>
       </c>
       <c r="N36">
-        <v>42.08695652173913</v>
+        <v>50</v>
       </c>
       <c r="O36">
-        <v>54.90217391304348</v>
+        <v>61.12121212121212</v>
       </c>
       <c r="P36">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U36">
         <v>5</v>
       </c>
       <c r="V36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -3192,53 +3192,53 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_uttnz.png</t>
+          <t>stimuli/img_cv9qj.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>69.91891891891892</v>
+        <v>60.34375</v>
       </c>
       <c r="N37">
-        <v>49.91891891891892</v>
+        <v>35.34375</v>
       </c>
       <c r="O37">
-        <v>59.91891891891892</v>
+        <v>47.84375</v>
       </c>
       <c r="P37">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3284,38 +3284,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_uy1n4.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>90.14285714285714</v>
+        <v>76.30555555555556</v>
       </c>
       <c r="N38">
-        <v>75.22857142857143</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="O38">
-        <v>82.68571428571428</v>
+        <v>65.81944444444444</v>
       </c>
       <c r="P38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V38">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -3361,38 +3361,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_71mhq.png</t>
+          <t>stimuli/img_bdz92.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>69.34210526315789</v>
+        <v>63.72222222222222</v>
       </c>
       <c r="N39">
-        <v>47.02631578947368</v>
+        <v>42.63888888888889</v>
       </c>
       <c r="O39">
-        <v>58.18421052631579</v>
+        <v>53.18055555555556</v>
       </c>
       <c r="P39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -3438,38 +3438,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_xesl0.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>76.30555555555556</v>
+        <v>69.28571428571429</v>
       </c>
       <c r="N40">
-        <v>55.33333333333334</v>
+        <v>47.35714285714285</v>
       </c>
       <c r="O40">
-        <v>65.81944444444444</v>
+        <v>58.32142857142857</v>
       </c>
       <c r="P40">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V40">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3515,38 +3515,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_mqnl6.png</t>
+          <t>stimuli/img_lpas9.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>70.7560975609756</v>
+        <v>59.36585365853659</v>
       </c>
       <c r="N41">
-        <v>45.68292682926829</v>
+        <v>39.09756097560975</v>
       </c>
       <c r="O41">
-        <v>58.21951219512195</v>
+        <v>49.23170731707317</v>
       </c>
       <c r="P41">
         <v>41</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
